--- a/TALSRepo/Reports/FinalReport.xlsx
+++ b/TALSRepo/Reports/FinalReport.xlsx
@@ -898,6 +898,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -928,12 +934,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,6 +941,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -954,9 +957,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3560,7 +3560,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>82</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>236</c:v>
@@ -4479,7 +4479,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4623,7 +4622,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4767,7 +4765,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4911,7 +4908,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8542,47 +8538,47 @@
       </c>
     </row>
     <row r="2" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="100" t="s">
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="104" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="100"/>
-      <c r="C3" s="101" t="s">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="100" t="s">
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="107" t="s">
+      <c r="H3" s="102"/>
+      <c r="I3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="105"/>
+      <c r="K3" s="107"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="100"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="71" t="s">
         <v>9</v>
       </c>
@@ -8601,9 +8597,9 @@
       <c r="H4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="106"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="108"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -8774,47 +8770,47 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="100" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="109" t="s">
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="111" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="100"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="100" t="s">
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100" t="s">
+      <c r="H13" s="102"/>
+      <c r="I13" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="100" t="s">
+      <c r="J13" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="100"/>
+      <c r="K13" s="102"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="100"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="70" t="s">
         <v>9</v>
       </c>
@@ -8833,9 +8829,9 @@
       <c r="H14" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
     </row>
     <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
@@ -9366,49 +9362,49 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="100" t="s">
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="104" t="s">
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101" t="s">
+      <c r="B34" s="102"/>
+      <c r="C34" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="100" t="s">
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="100"/>
-      <c r="I34" s="107" t="s">
+      <c r="H34" s="102"/>
+      <c r="I34" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="107" t="s">
+      <c r="J34" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="105"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
-      <c r="B35" s="100"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="70" t="s">
         <v>9</v>
       </c>
@@ -9427,9 +9423,9 @@
       <c r="H35" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="106"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="108"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
@@ -9910,10 +9906,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="51"/>
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="111"/>
+      <c r="C61" s="101"/>
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
       <c r="F61" s="57"/>
@@ -10522,6 +10518,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
     <mergeCell ref="B61:C61"/>
     <mergeCell ref="B33:B35"/>
     <mergeCell ref="C33:F33"/>
@@ -10531,22 +10543,6 @@
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="I34:I35"/>
     <mergeCell ref="J34:J35"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B18" r:id="rId1" display="http://stage.telerikacademy.com/Administration_Courses/UsersInCourses"/>
@@ -10596,47 +10592,47 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="100" t="s">
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="104" t="s">
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="100"/>
-      <c r="C3" s="101" t="s">
+      <c r="B3" s="102"/>
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="100" t="s">
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="107" t="s">
+      <c r="H3" s="102"/>
+      <c r="I3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="105"/>
+      <c r="K3" s="107"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="100"/>
+      <c r="B4" s="102"/>
       <c r="C4" s="3" t="s">
         <v>59</v>
       </c>
@@ -10655,9 +10651,9 @@
       <c r="H4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="106"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="108"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -10828,47 +10824,47 @@
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="100" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="109" t="s">
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="111" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="100"/>
-      <c r="C13" s="101" t="s">
+      <c r="B13" s="102"/>
+      <c r="C13" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="100" t="s">
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="100" t="s">
+      <c r="H13" s="102"/>
+      <c r="I13" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="100" t="s">
+      <c r="J13" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="100"/>
+      <c r="K13" s="102"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="100"/>
+      <c r="B14" s="102"/>
       <c r="C14" s="66" t="s">
         <v>59</v>
       </c>
@@ -10887,9 +10883,9 @@
       <c r="H14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="100"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="100"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="102"/>
     </row>
     <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
@@ -11420,49 +11416,49 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="100" t="s">
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="104" t="s">
+      <c r="H33" s="102"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="102"/>
+      <c r="K33" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="101" t="s">
+      <c r="B34" s="102"/>
+      <c r="C34" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="100" t="s">
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="100"/>
-      <c r="I34" s="107" t="s">
+      <c r="H34" s="102"/>
+      <c r="I34" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="107" t="s">
+      <c r="J34" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="105"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
-      <c r="B35" s="100"/>
+      <c r="B35" s="102"/>
       <c r="C35" s="4" t="s">
         <v>9</v>
       </c>
@@ -11481,9 +11477,9 @@
       <c r="H35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="106"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="108"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
@@ -11966,10 +11962,10 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="51"/>
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="111"/>
+      <c r="C61" s="101"/>
       <c r="D61" s="57"/>
       <c r="E61" s="57"/>
       <c r="F61" s="57"/>
@@ -12074,6 +12070,2060 @@
       <c r="J79" s="22"/>
     </row>
     <row r="80" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H80" s="22"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="22"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="H81" s="22"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="67"/>
+      <c r="K81" s="65"/>
+      <c r="L81" s="65"/>
+      <c r="M81" s="65"/>
+      <c r="N81" s="65"/>
+      <c r="O81" s="65"/>
+      <c r="P81" s="65"/>
+      <c r="Q81" s="65"/>
+      <c r="R81" s="65"/>
+      <c r="S81" s="65"/>
+      <c r="T81" s="65"/>
+      <c r="U81" s="65"/>
+      <c r="V81" s="65"/>
+      <c r="W81" s="65"/>
+      <c r="X81" s="65"/>
+      <c r="Y81" s="65"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="22"/>
+      <c r="J82" s="67"/>
+      <c r="K82" s="65"/>
+      <c r="L82" s="65"/>
+      <c r="M82" s="65"/>
+      <c r="N82" s="65"/>
+      <c r="O82" s="65"/>
+      <c r="P82" s="65"/>
+      <c r="Q82" s="65"/>
+      <c r="R82" s="65"/>
+      <c r="S82" s="65"/>
+      <c r="T82" s="65"/>
+      <c r="U82" s="65"/>
+      <c r="V82" s="65"/>
+      <c r="W82" s="65"/>
+      <c r="X82" s="65"/>
+      <c r="Y82" s="65"/>
+    </row>
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="65"/>
+      <c r="L83" s="65"/>
+      <c r="M83" s="65"/>
+      <c r="N83" s="65"/>
+      <c r="O83" s="65"/>
+      <c r="P83" s="65"/>
+      <c r="Q83" s="65"/>
+      <c r="R83" s="65"/>
+      <c r="S83" s="65"/>
+      <c r="T83" s="65"/>
+      <c r="U83" s="65"/>
+      <c r="V83" s="65"/>
+      <c r="W83" s="65"/>
+      <c r="X83" s="65"/>
+      <c r="Y83" s="65"/>
+    </row>
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="61"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="67"/>
+      <c r="K84" s="65"/>
+      <c r="L84" s="65"/>
+      <c r="M84" s="65"/>
+      <c r="N84" s="65"/>
+      <c r="O84" s="65"/>
+      <c r="P84" s="68"/>
+      <c r="Q84" s="69"/>
+      <c r="R84" s="65"/>
+      <c r="S84" s="65"/>
+      <c r="T84" s="65"/>
+      <c r="U84" s="65"/>
+      <c r="V84" s="65"/>
+      <c r="W84" s="65"/>
+      <c r="X84" s="65"/>
+      <c r="Y84" s="65"/>
+    </row>
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A85" s="22"/>
+      <c r="B85" s="64"/>
+      <c r="C85" s="65"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="67"/>
+      <c r="K85" s="65"/>
+      <c r="L85" s="65"/>
+      <c r="M85" s="65"/>
+      <c r="N85" s="64"/>
+      <c r="O85" s="65"/>
+      <c r="P85" s="65"/>
+      <c r="Q85" s="65"/>
+      <c r="R85" s="65"/>
+      <c r="S85" s="65"/>
+      <c r="T85" s="65"/>
+      <c r="U85" s="65"/>
+      <c r="V85" s="65"/>
+      <c r="W85" s="65"/>
+      <c r="X85" s="65"/>
+      <c r="Y85" s="65"/>
+    </row>
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A86" s="22"/>
+      <c r="B86" s="65"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="22"/>
+      <c r="J86" s="67"/>
+      <c r="K86" s="65"/>
+      <c r="L86" s="65"/>
+      <c r="M86" s="65"/>
+      <c r="N86" s="65"/>
+      <c r="O86" s="65"/>
+      <c r="P86" s="65"/>
+      <c r="Q86" s="65"/>
+      <c r="R86" s="65"/>
+      <c r="S86" s="65"/>
+      <c r="T86" s="65"/>
+      <c r="U86" s="65"/>
+      <c r="V86" s="65"/>
+      <c r="W86" s="65"/>
+      <c r="X86" s="65"/>
+      <c r="Y86" s="65"/>
+    </row>
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="67"/>
+      <c r="K87" s="65"/>
+      <c r="L87" s="65"/>
+      <c r="M87" s="65"/>
+      <c r="N87" s="64"/>
+      <c r="O87" s="65"/>
+      <c r="P87" s="65"/>
+      <c r="Q87" s="65"/>
+      <c r="R87" s="69"/>
+      <c r="S87" s="65"/>
+      <c r="T87" s="65"/>
+      <c r="U87" s="65"/>
+      <c r="V87" s="65"/>
+      <c r="W87" s="65"/>
+      <c r="X87" s="65"/>
+      <c r="Y87" s="65"/>
+    </row>
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A88" s="22"/>
+      <c r="J88" s="65"/>
+      <c r="K88" s="65"/>
+      <c r="L88" s="65"/>
+      <c r="M88" s="65"/>
+      <c r="N88" s="65"/>
+      <c r="O88" s="65"/>
+      <c r="P88" s="65"/>
+      <c r="Q88" s="65"/>
+      <c r="R88" s="65"/>
+      <c r="S88" s="65"/>
+      <c r="T88" s="65"/>
+      <c r="U88" s="65"/>
+      <c r="V88" s="65"/>
+      <c r="W88" s="65"/>
+      <c r="X88" s="65"/>
+      <c r="Y88" s="65"/>
+    </row>
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A89" s="22"/>
+      <c r="J89" s="65"/>
+      <c r="K89" s="65"/>
+      <c r="L89" s="65"/>
+      <c r="M89" s="65"/>
+      <c r="N89" s="64"/>
+      <c r="O89" s="65"/>
+      <c r="P89" s="65"/>
+      <c r="Q89" s="65"/>
+      <c r="R89" s="65"/>
+      <c r="S89" s="69"/>
+      <c r="T89" s="69"/>
+      <c r="U89" s="69"/>
+      <c r="V89" s="69"/>
+      <c r="W89" s="65"/>
+      <c r="X89" s="65"/>
+      <c r="Y89" s="65"/>
+    </row>
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A90" s="22"/>
+      <c r="J90" s="65"/>
+      <c r="K90" s="65"/>
+      <c r="L90" s="65"/>
+      <c r="M90" s="65"/>
+      <c r="N90" s="64"/>
+      <c r="O90" s="65"/>
+      <c r="P90" s="65"/>
+      <c r="Q90" s="65"/>
+      <c r="R90" s="65"/>
+      <c r="S90" s="65"/>
+      <c r="T90" s="65"/>
+      <c r="U90" s="65"/>
+      <c r="V90" s="65"/>
+      <c r="W90" s="65"/>
+      <c r="X90" s="65"/>
+      <c r="Y90" s="65"/>
+    </row>
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A91" s="22"/>
+      <c r="J91" s="65"/>
+      <c r="K91" s="65"/>
+      <c r="L91" s="65"/>
+      <c r="M91" s="65"/>
+      <c r="N91" s="65"/>
+      <c r="O91" s="65"/>
+      <c r="P91" s="65"/>
+      <c r="Q91" s="65"/>
+      <c r="R91" s="65"/>
+      <c r="S91" s="65"/>
+      <c r="T91" s="65"/>
+      <c r="U91" s="65"/>
+      <c r="V91" s="65"/>
+      <c r="W91" s="65"/>
+      <c r="X91" s="65"/>
+      <c r="Y91" s="65"/>
+    </row>
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A92" s="22"/>
+      <c r="J92" s="65"/>
+      <c r="K92" s="65"/>
+      <c r="L92" s="65"/>
+      <c r="M92" s="65"/>
+      <c r="N92" s="64"/>
+      <c r="O92" s="65"/>
+      <c r="P92" s="65"/>
+      <c r="Q92" s="65"/>
+      <c r="R92" s="65"/>
+      <c r="S92" s="65"/>
+      <c r="T92" s="65"/>
+      <c r="U92" s="65"/>
+      <c r="V92" s="65"/>
+      <c r="W92" s="65"/>
+      <c r="X92" s="65"/>
+      <c r="Y92" s="65"/>
+    </row>
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A93" s="22"/>
+      <c r="J93" s="65"/>
+      <c r="K93" s="65"/>
+      <c r="L93" s="65"/>
+      <c r="M93" s="65"/>
+      <c r="N93" s="64"/>
+      <c r="O93" s="65"/>
+      <c r="P93" s="65"/>
+      <c r="Q93" s="65"/>
+      <c r="R93" s="65"/>
+      <c r="S93" s="65"/>
+      <c r="T93" s="65"/>
+      <c r="U93" s="65"/>
+      <c r="V93" s="65"/>
+      <c r="W93" s="65"/>
+      <c r="X93" s="65"/>
+      <c r="Y93" s="65"/>
+    </row>
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A94" s="22"/>
+      <c r="J94" s="65"/>
+      <c r="K94" s="65"/>
+      <c r="L94" s="65"/>
+      <c r="M94" s="65"/>
+      <c r="N94" s="65"/>
+      <c r="O94" s="65"/>
+      <c r="P94" s="65"/>
+      <c r="Q94" s="65"/>
+      <c r="R94" s="65"/>
+      <c r="S94" s="65"/>
+      <c r="T94" s="65"/>
+      <c r="U94" s="65"/>
+      <c r="V94" s="65"/>
+      <c r="W94" s="65"/>
+      <c r="X94" s="65"/>
+      <c r="Y94" s="65"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A95" s="22"/>
+      <c r="J95" s="65"/>
+      <c r="K95" s="65"/>
+      <c r="L95" s="65"/>
+      <c r="M95" s="65"/>
+      <c r="N95" s="65"/>
+      <c r="O95" s="65"/>
+      <c r="P95" s="65"/>
+      <c r="Q95" s="65"/>
+      <c r="R95" s="65"/>
+      <c r="S95" s="65"/>
+      <c r="T95" s="65"/>
+      <c r="U95" s="65"/>
+      <c r="V95" s="65"/>
+      <c r="W95" s="65"/>
+      <c r="X95" s="65"/>
+      <c r="Y95" s="65"/>
+    </row>
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A96" s="22"/>
+      <c r="C96" s="62"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65"/>
+      <c r="Q96" s="65"/>
+      <c r="R96" s="65"/>
+      <c r="S96" s="65"/>
+      <c r="T96" s="65"/>
+      <c r="U96" s="65"/>
+      <c r="V96" s="65"/>
+      <c r="W96" s="65"/>
+      <c r="X96" s="65"/>
+      <c r="Y96" s="65"/>
+    </row>
+    <row r="97" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D97" s="63"/>
+      <c r="E97" s="63"/>
+      <c r="F97" s="63"/>
+      <c r="G97" s="63"/>
+      <c r="J97" s="65"/>
+      <c r="K97" s="65"/>
+      <c r="L97" s="65"/>
+      <c r="M97" s="65"/>
+      <c r="N97" s="64"/>
+      <c r="O97" s="65"/>
+      <c r="P97" s="65"/>
+      <c r="Q97" s="65"/>
+      <c r="R97" s="65"/>
+      <c r="S97" s="65"/>
+      <c r="T97" s="65"/>
+      <c r="U97" s="65"/>
+      <c r="V97" s="65"/>
+      <c r="W97" s="65"/>
+      <c r="X97" s="65"/>
+      <c r="Y97" s="65"/>
+    </row>
+    <row r="98" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="J98" s="65"/>
+      <c r="K98" s="65"/>
+      <c r="L98" s="65"/>
+      <c r="M98" s="65"/>
+      <c r="N98" s="64"/>
+      <c r="O98" s="65"/>
+      <c r="P98" s="65"/>
+      <c r="Q98" s="65"/>
+      <c r="R98" s="65"/>
+      <c r="S98" s="65"/>
+      <c r="T98" s="65"/>
+      <c r="U98" s="65"/>
+      <c r="V98" s="65"/>
+      <c r="W98" s="65"/>
+      <c r="X98" s="65"/>
+      <c r="Y98" s="65"/>
+    </row>
+    <row r="99" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="J99" s="65"/>
+      <c r="K99" s="65"/>
+      <c r="L99" s="65"/>
+      <c r="M99" s="65"/>
+      <c r="N99" s="65"/>
+      <c r="O99" s="65"/>
+      <c r="P99" s="65"/>
+      <c r="Q99" s="65"/>
+      <c r="R99" s="65"/>
+      <c r="S99" s="65"/>
+      <c r="T99" s="65"/>
+      <c r="U99" s="65"/>
+      <c r="V99" s="65"/>
+      <c r="W99" s="65"/>
+      <c r="X99" s="65"/>
+      <c r="Y99" s="65"/>
+    </row>
+    <row r="100" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="J100" s="65"/>
+      <c r="K100" s="65"/>
+      <c r="L100" s="65"/>
+      <c r="M100" s="65"/>
+      <c r="N100" s="65"/>
+      <c r="O100" s="65"/>
+      <c r="P100" s="65"/>
+      <c r="Q100" s="65"/>
+      <c r="R100" s="65"/>
+      <c r="S100" s="65"/>
+      <c r="T100" s="65"/>
+      <c r="U100" s="65"/>
+      <c r="V100" s="65"/>
+      <c r="W100" s="65"/>
+      <c r="X100" s="65"/>
+      <c r="Y100" s="65"/>
+    </row>
+    <row r="101" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="J101" s="65"/>
+      <c r="K101" s="65"/>
+      <c r="L101" s="65"/>
+      <c r="M101" s="65"/>
+      <c r="N101" s="65"/>
+      <c r="O101" s="65"/>
+      <c r="P101" s="65"/>
+      <c r="Q101" s="65"/>
+      <c r="R101" s="65"/>
+      <c r="S101" s="65"/>
+      <c r="T101" s="65"/>
+      <c r="U101" s="65"/>
+      <c r="V101" s="65"/>
+      <c r="W101" s="65"/>
+      <c r="X101" s="65"/>
+      <c r="Y101" s="65"/>
+    </row>
+    <row r="102" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="J102" s="65"/>
+      <c r="K102" s="65"/>
+      <c r="L102" s="65"/>
+      <c r="M102" s="65"/>
+      <c r="N102" s="65"/>
+      <c r="O102" s="65"/>
+      <c r="P102" s="65"/>
+      <c r="Q102" s="65"/>
+      <c r="R102" s="65"/>
+      <c r="S102" s="65"/>
+      <c r="T102" s="65"/>
+      <c r="U102" s="65"/>
+      <c r="V102" s="65"/>
+      <c r="W102" s="65"/>
+      <c r="X102" s="65"/>
+      <c r="Y102" s="65"/>
+    </row>
+    <row r="103" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="J103" s="65"/>
+      <c r="K103" s="65"/>
+      <c r="L103" s="65"/>
+      <c r="M103" s="65"/>
+      <c r="N103" s="65"/>
+      <c r="O103" s="65"/>
+      <c r="P103" s="65"/>
+      <c r="Q103" s="65"/>
+      <c r="R103" s="65"/>
+      <c r="S103" s="65"/>
+      <c r="T103" s="65"/>
+      <c r="U103" s="65"/>
+      <c r="V103" s="65"/>
+      <c r="W103" s="65"/>
+      <c r="X103" s="65"/>
+      <c r="Y103" s="65"/>
+    </row>
+    <row r="104" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="J104" s="65"/>
+      <c r="K104" s="65"/>
+      <c r="L104" s="65"/>
+      <c r="M104" s="65"/>
+      <c r="N104" s="65"/>
+      <c r="O104" s="65"/>
+      <c r="P104" s="65"/>
+      <c r="Q104" s="65"/>
+      <c r="R104" s="65"/>
+      <c r="S104" s="65"/>
+      <c r="T104" s="65"/>
+      <c r="U104" s="65"/>
+      <c r="V104" s="65"/>
+      <c r="W104" s="65"/>
+      <c r="X104" s="65"/>
+      <c r="Y104" s="65"/>
+    </row>
+    <row r="105" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="J105" s="65"/>
+      <c r="K105" s="65"/>
+      <c r="L105" s="65"/>
+      <c r="M105" s="65"/>
+      <c r="N105" s="65"/>
+      <c r="O105" s="65"/>
+      <c r="P105" s="65"/>
+      <c r="Q105" s="65"/>
+      <c r="R105" s="65"/>
+      <c r="S105" s="65"/>
+      <c r="T105" s="65"/>
+      <c r="U105" s="65"/>
+      <c r="V105" s="65"/>
+      <c r="W105" s="65"/>
+      <c r="X105" s="65"/>
+      <c r="Y105" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="K33:K35"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B18" r:id="rId1" display="http://stage.telerikacademy.com/Administration_Courses/UsersInCourses"/>
+    <hyperlink ref="B17" r:id="rId2" display="http://stage.telerikacademy.com/Administration_Courses/CourseInstanceCategoriesHierarchy"/>
+    <hyperlink ref="B16" r:id="rId3" display="http://stage.telerikacademy.com/Administration_Courses/CourseInstanceCategories"/>
+    <hyperlink ref="B15" r:id="rId4" display="http://stage.telerikacademy.com/Administration_Courses/CoursesInstancesAndLectures"/>
+    <hyperlink ref="B19" r:id="rId5" display="http://stage.telerikacademy.com/Administration_Courses/CoursesGroups"/>
+    <hyperlink ref="B20" r:id="rId6" display="http://stage.telerikacademy.com/Administration_Courses/Homework"/>
+    <hyperlink ref="B21" r:id="rId7" display="http://stage.telerikacademy.com/Administration_Courses/CoursesAndLectures"/>
+    <hyperlink ref="B23" r:id="rId8" display="http://stage.telerikacademy.com/Administration_Courses/CourseLicenses"/>
+    <hyperlink ref="B24" r:id="rId9" display="http://stage.telerikacademy.com/Administration_Courses/CourseInstancesStatistics"/>
+    <hyperlink ref="B25" r:id="rId10" display="http://stage.telerikacademy.com/Administration_Courses/CourseInstancesYearsStatistics"/>
+    <hyperlink ref="B26" r:id="rId11" display="http://stage.telerikacademy.com/Administration_Courses/Polls"/>
+    <hyperlink ref="B27" r:id="rId12" display="http://stage.telerikacademy.com/Administration_Courses/PollsStatistics"/>
+    <hyperlink ref="B28" r:id="rId13" display="http://stage.telerikacademy.com/Administration_Courses/UnenrolledUsersInCourses"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Y105"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="N26" sqref="N26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.109375" style="2"/>
+    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
+    <col min="3" max="6" width="9.6640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.109375" style="2" customWidth="1"/>
+    <col min="9" max="11" width="9.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.109375" style="2"/>
+    <col min="13" max="13" width="17.5546875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="112"/>
+      <c r="C3" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="105"/>
+      <c r="I3" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="107"/>
+    </row>
+    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="110"/>
+      <c r="C4" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="108"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>24</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>24</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>8</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>8</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0</v>
+      </c>
+      <c r="L6" s="7"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="11">
+        <v>6</v>
+      </c>
+      <c r="I7" s="11">
+        <v>0</v>
+      </c>
+      <c r="J7" s="11">
+        <v>6</v>
+      </c>
+      <c r="K7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="13">
+        <f>SUM(C5:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="13">
+        <f t="shared" ref="D8:K8" si="0">SUM(D5:D7)</f>
+        <v>12</v>
+      </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="112"/>
+      <c r="C13" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="105"/>
+      <c r="I13" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" s="107"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="110"/>
+      <c r="C14" s="70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="108"/>
+    </row>
+    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="17">
+        <v>18</v>
+      </c>
+      <c r="D15" s="17">
+        <v>22</v>
+      </c>
+      <c r="E15" s="17">
+        <v>4</v>
+      </c>
+      <c r="F15" s="17">
+        <v>4</v>
+      </c>
+      <c r="G15" s="17">
+        <v>41</v>
+      </c>
+      <c r="H15" s="17">
+        <v>7</v>
+      </c>
+      <c r="I15" s="17">
+        <v>5</v>
+      </c>
+      <c r="J15" s="17">
+        <v>43</v>
+      </c>
+      <c r="K15" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="19">
+        <v>7</v>
+      </c>
+      <c r="D16" s="19">
+        <v>9</v>
+      </c>
+      <c r="E16" s="19">
+        <v>3</v>
+      </c>
+      <c r="F16" s="19">
+        <v>4</v>
+      </c>
+      <c r="G16" s="19">
+        <v>12</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>1</v>
+      </c>
+      <c r="J16" s="19">
+        <v>11</v>
+      </c>
+      <c r="K16" s="19">
+        <v>3</v>
+      </c>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
+      <c r="H17" s="17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="17">
+        <v>0</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="17">
+        <v>0</v>
+      </c>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="19">
+        <v>6</v>
+      </c>
+      <c r="D18" s="19">
+        <v>15</v>
+      </c>
+      <c r="E18" s="19">
+        <v>6</v>
+      </c>
+      <c r="F18" s="19">
+        <v>5</v>
+      </c>
+      <c r="G18" s="19">
+        <v>19</v>
+      </c>
+      <c r="H18" s="19">
+        <v>13</v>
+      </c>
+      <c r="I18" s="19">
+        <v>1</v>
+      </c>
+      <c r="J18" s="19">
+        <v>31</v>
+      </c>
+      <c r="K18" s="19">
+        <v>1</v>
+      </c>
+      <c r="L18" s="20"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
+        <v>2</v>
+      </c>
+      <c r="E19" s="17">
+        <v>11</v>
+      </c>
+      <c r="F19" s="17">
+        <v>0</v>
+      </c>
+      <c r="G19" s="17">
+        <v>13</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1</v>
+      </c>
+      <c r="I19" s="17">
+        <v>3</v>
+      </c>
+      <c r="J19" s="17">
+        <v>11</v>
+      </c>
+      <c r="K19" s="17">
+        <v>0</v>
+      </c>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="19">
+        <v>6</v>
+      </c>
+      <c r="D20" s="19">
+        <v>6</v>
+      </c>
+      <c r="E20" s="19">
+        <v>5</v>
+      </c>
+      <c r="F20" s="19">
+        <v>4</v>
+      </c>
+      <c r="G20" s="19">
+        <v>12</v>
+      </c>
+      <c r="H20" s="19">
+        <v>9</v>
+      </c>
+      <c r="I20" s="19">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>17</v>
+      </c>
+      <c r="K20" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="17">
+        <v>24</v>
+      </c>
+      <c r="D21" s="17">
+        <v>18</v>
+      </c>
+      <c r="E21" s="17">
+        <v>13</v>
+      </c>
+      <c r="F21" s="17">
+        <v>10</v>
+      </c>
+      <c r="G21" s="17">
+        <v>18</v>
+      </c>
+      <c r="H21" s="17">
+        <v>40</v>
+      </c>
+      <c r="I21" s="17">
+        <v>3</v>
+      </c>
+      <c r="J21" s="17">
+        <v>55</v>
+      </c>
+      <c r="K21" s="17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="19">
+        <v>34</v>
+      </c>
+      <c r="D22" s="19">
+        <v>26</v>
+      </c>
+      <c r="E22" s="19">
+        <v>3</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>38</v>
+      </c>
+      <c r="H22" s="19">
+        <v>25</v>
+      </c>
+      <c r="I22" s="19">
+        <v>10</v>
+      </c>
+      <c r="J22" s="19">
+        <v>53</v>
+      </c>
+      <c r="K22" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="17">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17">
+        <v>15</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <v>0</v>
+      </c>
+      <c r="G23" s="17">
+        <v>5</v>
+      </c>
+      <c r="H23" s="17">
+        <v>12</v>
+      </c>
+      <c r="I23" s="17">
+        <v>0</v>
+      </c>
+      <c r="J23" s="17">
+        <v>17</v>
+      </c>
+      <c r="K23" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="19">
+        <v>0</v>
+      </c>
+      <c r="D24" s="19">
+        <v>2</v>
+      </c>
+      <c r="E24" s="19">
+        <v>5</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>7</v>
+      </c>
+      <c r="H24" s="19">
+        <v>0</v>
+      </c>
+      <c r="I24" s="19">
+        <v>3</v>
+      </c>
+      <c r="J24" s="19">
+        <v>4</v>
+      </c>
+      <c r="K24" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="D25" s="21">
+        <v>0</v>
+      </c>
+      <c r="E25" s="21">
+        <v>8</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0</v>
+      </c>
+      <c r="G25" s="21">
+        <v>0</v>
+      </c>
+      <c r="H25" s="21">
+        <v>8</v>
+      </c>
+      <c r="I25" s="21">
+        <v>0</v>
+      </c>
+      <c r="J25" s="21">
+        <v>8</v>
+      </c>
+      <c r="K25" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="19">
+        <v>0</v>
+      </c>
+      <c r="D26" s="19">
+        <v>0</v>
+      </c>
+      <c r="E26" s="19">
+        <v>0</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0</v>
+      </c>
+      <c r="G26" s="19">
+        <v>0</v>
+      </c>
+      <c r="H26" s="19">
+        <v>0</v>
+      </c>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="19">
+        <v>0</v>
+      </c>
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="21">
+        <v>0</v>
+      </c>
+      <c r="E27" s="21">
+        <v>2</v>
+      </c>
+      <c r="F27" s="21">
+        <v>0</v>
+      </c>
+      <c r="G27" s="21">
+        <v>0</v>
+      </c>
+      <c r="H27" s="21">
+        <v>2</v>
+      </c>
+      <c r="I27" s="21">
+        <v>0</v>
+      </c>
+      <c r="J27" s="21">
+        <v>2</v>
+      </c>
+      <c r="K27" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="19">
+        <v>0</v>
+      </c>
+      <c r="D28" s="19">
+        <v>10</v>
+      </c>
+      <c r="E28" s="19">
+        <v>3</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0</v>
+      </c>
+      <c r="G28" s="19">
+        <v>13</v>
+      </c>
+      <c r="H28" s="19">
+        <v>0</v>
+      </c>
+      <c r="I28" s="19">
+        <v>9</v>
+      </c>
+      <c r="J28" s="19">
+        <v>4</v>
+      </c>
+      <c r="K28" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="24">
+        <f>SUM(C15:C28)</f>
+        <v>98</v>
+      </c>
+      <c r="D29" s="24">
+        <f t="shared" ref="D29:K29" si="1">SUM(D15:D28)</f>
+        <v>125</v>
+      </c>
+      <c r="E29" s="24">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="F29" s="24">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="G29" s="24">
+        <f t="shared" si="1"/>
+        <v>179</v>
+      </c>
+      <c r="H29" s="24">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="I29" s="24">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="J29" s="24">
+        <f t="shared" si="1"/>
+        <v>257</v>
+      </c>
+      <c r="K29" s="24">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="109" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="103" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="103" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="103" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="103" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="105"/>
+      <c r="I34" s="109" t="s">
+        <v>7</v>
+      </c>
+      <c r="J34" s="109" t="s">
+        <v>8</v>
+      </c>
+      <c r="K34" s="107"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="H35" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="108"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B36" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="31">
+        <f>SUM(C5:C7, C15:C28)</f>
+        <v>98</v>
+      </c>
+      <c r="D36" s="32">
+        <f>SUM(D5:D7, D15:D28)</f>
+        <v>137</v>
+      </c>
+      <c r="E36" s="31">
+        <f>SUM(D5:D7, E15:E28)</f>
+        <v>76</v>
+      </c>
+      <c r="F36" s="31">
+        <f>SUM(E5:E7, F15:F28)</f>
+        <v>29</v>
+      </c>
+      <c r="G36" s="31">
+        <f>SUM(G5:G7, G15:G28)</f>
+        <v>179</v>
+      </c>
+      <c r="H36" s="31">
+        <f>SUM(H5:H7, H15:H28)</f>
+        <v>155</v>
+      </c>
+      <c r="I36" s="31">
+        <f>SUM(I5:I7, I15:I28)</f>
+        <v>39</v>
+      </c>
+      <c r="J36" s="31">
+        <f>SUM(J5:J7, J15:J28)</f>
+        <v>295</v>
+      </c>
+      <c r="K36" s="31">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G37" s="28"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="34"/>
+    </row>
+    <row r="38" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B38" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H38" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="33"/>
+      <c r="J38" s="34"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B39" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="39">
+        <f>SUM(C5:F7)</f>
+        <v>14</v>
+      </c>
+      <c r="D39" s="40">
+        <f>C39*100/C41</f>
+        <v>4.2682926829268295</v>
+      </c>
+      <c r="E39" s="39">
+        <f>SUM(G5:G7)</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="40">
+        <f>E39*100/E41</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="39">
+        <f>SUM(H5:H7)</f>
+        <v>38</v>
+      </c>
+      <c r="H39" s="40">
+        <f>G39*100/G41</f>
+        <v>24.516129032258064</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="42">
+        <f>SUM(C15:F28)</f>
+        <v>314</v>
+      </c>
+      <c r="D40" s="43">
+        <f>C40*100/C41</f>
+        <v>95.731707317073173</v>
+      </c>
+      <c r="E40" s="42">
+        <f>SUM(G15:G28)</f>
+        <v>179</v>
+      </c>
+      <c r="F40" s="43">
+        <f>E40*100/E41</f>
+        <v>100</v>
+      </c>
+      <c r="G40" s="42">
+        <f>SUM(H15:H28)</f>
+        <v>117</v>
+      </c>
+      <c r="H40" s="43">
+        <f>G40*100/G41</f>
+        <v>75.483870967741936</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="45">
+        <f t="shared" ref="C41:H41" si="2">C39+C40</f>
+        <v>328</v>
+      </c>
+      <c r="D41" s="46">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="E41" s="45">
+        <f t="shared" si="2"/>
+        <v>179</v>
+      </c>
+      <c r="F41" s="46">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G41" s="45">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="H41" s="46">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="G44" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="I44" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="22"/>
+      <c r="B45" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C45" s="38">
+        <f>SUM(C5:C7)</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="49">
+        <f>C45*100/C47</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="39">
+        <f>SUM(D5:D7)</f>
+        <v>12</v>
+      </c>
+      <c r="F45" s="49">
+        <f>E45*100/E47</f>
+        <v>8.7591240875912408</v>
+      </c>
+      <c r="G45" s="39">
+        <f>SUM(E5:E7)</f>
+        <v>2</v>
+      </c>
+      <c r="H45" s="49">
+        <f>G45*100/G47</f>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="I45" s="39">
+        <f>SUM(F5:F7)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="49">
+        <f>I45*100/I47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="22"/>
+      <c r="B46" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="41">
+        <f>SUM(C15:C28)</f>
+        <v>98</v>
+      </c>
+      <c r="D46" s="50">
+        <f>C46*100/C47</f>
+        <v>100</v>
+      </c>
+      <c r="E46" s="42">
+        <f>SUM(D15:D28)</f>
+        <v>125</v>
+      </c>
+      <c r="F46" s="50">
+        <f>E46*100/E47</f>
+        <v>91.240875912408754</v>
+      </c>
+      <c r="G46" s="42">
+        <f>SUM(E15:E28)</f>
+        <v>64</v>
+      </c>
+      <c r="H46" s="50">
+        <f>G46*100/G47</f>
+        <v>96.969696969696969</v>
+      </c>
+      <c r="I46" s="42">
+        <f>SUM(F15:F28)</f>
+        <v>27</v>
+      </c>
+      <c r="J46" s="50">
+        <f>I46*100/I47</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="22"/>
+      <c r="B47" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="44">
+        <f>C45+C46</f>
+        <v>98</v>
+      </c>
+      <c r="D47" s="46">
+        <f t="shared" ref="D47" si="3">D45+D46</f>
+        <v>100</v>
+      </c>
+      <c r="E47" s="45">
+        <f>E45+E46</f>
+        <v>137</v>
+      </c>
+      <c r="F47" s="46">
+        <f t="shared" ref="F47:G47" si="4">F45+F46</f>
+        <v>100</v>
+      </c>
+      <c r="G47" s="45">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="H47" s="46">
+        <f>H45+H46</f>
+        <v>100</v>
+      </c>
+      <c r="I47" s="45">
+        <f t="shared" ref="I47" si="5">I45+I46</f>
+        <v>27</v>
+      </c>
+      <c r="J47" s="46">
+        <f>J45+J46</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="22"/>
+      <c r="B48" s="51"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B49" s="51"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B50" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="70" t="s">
+        <v>54</v>
+      </c>
+      <c r="M50" s="52"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B51" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="32">
+        <f>SUM(U90:U95)</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="32">
+        <f>SUM(V90:V95)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="52"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="C52" s="32">
+        <v>21</v>
+      </c>
+      <c r="D52" s="32">
+        <v>4</v>
+      </c>
+      <c r="M52" s="52"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="53"/>
+      <c r="D53" s="54"/>
+      <c r="M53" s="52"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" s="51"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="M54" s="52"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" s="51"/>
+      <c r="B55" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="M55" s="52"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56" s="51"/>
+      <c r="B56" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="56">
+        <v>0</v>
+      </c>
+      <c r="D56" s="56">
+        <v>0</v>
+      </c>
+      <c r="E56" s="56">
+        <v>0</v>
+      </c>
+      <c r="F56" s="56">
+        <v>0</v>
+      </c>
+      <c r="G56" s="56">
+        <f>SUM(C56:F56)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="52"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="51"/>
+      <c r="B57" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="56">
+        <v>5</v>
+      </c>
+      <c r="D57" s="56">
+        <v>10</v>
+      </c>
+      <c r="E57" s="56">
+        <v>10</v>
+      </c>
+      <c r="F57" s="56">
+        <v>3</v>
+      </c>
+      <c r="G57" s="56">
+        <f>SUM(C57:F57)</f>
+        <v>28</v>
+      </c>
+      <c r="M57" s="52"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="51"/>
+      <c r="B58" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C58" s="56">
+        <f t="shared" ref="C58:E58" si="6">SUM(C56:C57)</f>
+        <v>5</v>
+      </c>
+      <c r="D58" s="56">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="E58" s="56">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="F58" s="56">
+        <f>SUM(F56:F57)</f>
+        <v>3</v>
+      </c>
+      <c r="G58" s="56">
+        <f>SUM(G56:G57)</f>
+        <v>28</v>
+      </c>
+      <c r="M58" s="52"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="51"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
+      <c r="F59" s="57"/>
+      <c r="G59" s="57"/>
+      <c r="M59" s="52"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="51"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="M60" s="52"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="51"/>
+      <c r="B61" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="101"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
+      <c r="F61" s="57"/>
+      <c r="G61" s="57"/>
+      <c r="M61" s="52"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="51"/>
+      <c r="B62" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="56">
+        <f>C58</f>
+        <v>5</v>
+      </c>
+      <c r="D62" s="57"/>
+      <c r="E62" s="57"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57"/>
+      <c r="M62" s="52"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="51"/>
+      <c r="B63" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="56">
+        <f>D58</f>
+        <v>10</v>
+      </c>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
+      <c r="F63" s="57"/>
+      <c r="G63" s="57"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="51"/>
+      <c r="B64" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="56">
+        <f>E58</f>
+        <v>10</v>
+      </c>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57"/>
+      <c r="F64" s="57"/>
+      <c r="G64" s="57"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="51"/>
+      <c r="B65" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="56">
+        <f>F58</f>
+        <v>3</v>
+      </c>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="57"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="51"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="51"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="L71" s="22"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="22"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H78" s="22"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="22"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H79" s="22"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="22"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H80" s="22"/>
       <c r="I80" s="22"/>
       <c r="J80" s="22"/>
@@ -12621,16 +14671,17 @@
     <hyperlink ref="B28" r:id="rId13" display="http://stage.telerikacademy.com/Administration_Courses/UnenrolledUsersInCourses"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId14"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y105"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12651,68 +14702,68 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="101" t="s">
+      <c r="D2" s="104"/>
+      <c r="E2" s="104"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104" t="s">
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" s="112"/>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="101" t="s">
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="107" t="s">
+      <c r="H3" s="105"/>
+      <c r="I3" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="107" t="s">
+      <c r="J3" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="105"/>
+      <c r="K3" s="107"/>
     </row>
     <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="108"/>
-      <c r="C4" s="71" t="s">
+      <c r="B4" s="110"/>
+      <c r="C4" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="71" t="s">
+      <c r="D4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="106"/>
+      <c r="I4" s="110"/>
+      <c r="J4" s="110"/>
+      <c r="K4" s="108"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -12731,16 +14782,16 @@
         <v>0</v>
       </c>
       <c r="G5" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" s="6">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6">
         <v>0</v>
       </c>
       <c r="J5" s="6">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="K5" s="6">
         <v>0</v>
@@ -12764,10 +14815,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="9">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="9">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I6" s="9">
         <v>0</v>
@@ -12803,10 +14854,10 @@
         <v>6</v>
       </c>
       <c r="I7" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K7" s="11">
         <v>0</v>
@@ -12834,19 +14885,19 @@
       </c>
       <c r="G8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I8" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J8" s="13">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="K8" s="13">
         <f t="shared" si="0"/>
@@ -12883,70 +14934,70 @@
       </c>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="107" t="s">
+      <c r="B12" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="101" t="s">
+      <c r="D12" s="104"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104" t="s">
+      <c r="H12" s="104"/>
+      <c r="I12" s="104"/>
+      <c r="J12" s="105"/>
+      <c r="K12" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="112"/>
-      <c r="C13" s="101" t="s">
+      <c r="C13" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="101" t="s">
+      <c r="D13" s="104"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="103"/>
-      <c r="I13" s="107" t="s">
+      <c r="H13" s="105"/>
+      <c r="I13" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="107" t="s">
+      <c r="J13" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K13" s="105"/>
+      <c r="K13" s="107"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="108"/>
-      <c r="C14" s="70" t="s">
+      <c r="B14" s="110"/>
+      <c r="C14" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="70" t="s">
+      <c r="D14" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="70" t="s">
+      <c r="E14" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="70" t="s">
+      <c r="F14" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="70" t="s">
+      <c r="G14" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="70" t="s">
+      <c r="H14" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="106"/>
-    </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I14" s="110"/>
+      <c r="J14" s="110"/>
+      <c r="K14" s="108"/>
+    </row>
+    <row r="15" spans="2:12" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="16" t="s">
         <v>20</v>
       </c>
@@ -12969,13 +15020,13 @@
         <v>7</v>
       </c>
       <c r="I15" s="17">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J15" s="17">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="K15" s="17">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -13159,16 +15210,16 @@
         <v>10</v>
       </c>
       <c r="G21" s="17">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H21" s="17">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I21" s="17">
         <v>3</v>
       </c>
       <c r="J21" s="17">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="K21" s="17">
         <v>2</v>
@@ -13281,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="F25" s="21">
         <v>0</v>
@@ -13290,13 +15341,13 @@
         <v>0</v>
       </c>
       <c r="H25" s="21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I25" s="21">
         <v>0</v>
       </c>
       <c r="J25" s="21">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="K25" s="21">
         <v>0</v>
@@ -13413,7 +15464,7 @@
       </c>
       <c r="E29" s="24">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F29" s="24">
         <f t="shared" si="1"/>
@@ -13421,23 +15472,23 @@
       </c>
       <c r="G29" s="24">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="H29" s="24">
         <f t="shared" si="1"/>
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="I29" s="24">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="J29" s="24">
         <f t="shared" si="1"/>
-        <v>257</v>
+        <v>224</v>
       </c>
       <c r="K29" s="24">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L29" s="22"/>
     </row>
@@ -13475,70 +15526,70 @@
     </row>
     <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22"/>
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="101" t="s">
+      <c r="D33" s="104"/>
+      <c r="E33" s="104"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="103" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="104" t="s">
+      <c r="H33" s="104"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="106" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="22"/>
       <c r="B34" s="112"/>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="101" t="s">
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="107" t="s">
+      <c r="H34" s="105"/>
+      <c r="I34" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="J34" s="107" t="s">
+      <c r="J34" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="K34" s="105"/>
+      <c r="K34" s="107"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="22"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="70" t="s">
+      <c r="B35" s="110"/>
+      <c r="C35" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="E35" s="70" t="s">
+      <c r="E35" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="70" t="s">
+      <c r="F35" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="G35" s="70" t="s">
+      <c r="G35" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="70" t="s">
+      <c r="H35" s="72" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="106"/>
+      <c r="I35" s="110"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="108"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B36" s="30" t="s">
@@ -13554,7 +15605,7 @@
       </c>
       <c r="E36" s="31">
         <f>SUM(D5:D7, E15:E28)</f>
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F36" s="31">
         <f>SUM(E5:E7, F15:F28)</f>
@@ -13562,19 +15613,19 @@
       </c>
       <c r="G36" s="31">
         <f>SUM(G5:G7, G15:G28)</f>
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="H36" s="31">
         <f>SUM(H5:H7, H15:H28)</f>
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="I36" s="31">
         <f>SUM(I5:I7, I15:I28)</f>
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="J36" s="31">
         <f>SUM(J5:J7, J15:J28)</f>
-        <v>295</v>
+        <v>236</v>
       </c>
       <c r="K36" s="31">
         <v>28</v>
@@ -13621,23 +15672,23 @@
       </c>
       <c r="D39" s="40">
         <f>C39*100/C41</f>
-        <v>4.2682926829268295</v>
+        <v>4.2168674698795181</v>
       </c>
       <c r="E39" s="39">
         <f>SUM(G5:G7)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="F39" s="40">
         <f>E39*100/E41</f>
-        <v>0</v>
+        <v>4.4334975369458132</v>
       </c>
       <c r="G39" s="39">
         <f>SUM(H5:H7)</f>
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="H39" s="40">
         <f>G39*100/G41</f>
-        <v>24.516129032258064</v>
+        <v>7.8260869565217392</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
@@ -13648,27 +15699,27 @@
       </c>
       <c r="C40" s="42">
         <f>SUM(C15:F28)</f>
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D40" s="43">
         <f>C40*100/C41</f>
-        <v>95.731707317073173</v>
+        <v>95.783132530120483</v>
       </c>
       <c r="E40" s="42">
         <f>SUM(G15:G28)</f>
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="F40" s="43">
         <f>E40*100/E41</f>
-        <v>100</v>
+        <v>95.566502463054192</v>
       </c>
       <c r="G40" s="42">
         <f>SUM(H15:H28)</f>
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="H40" s="43">
         <f>G40*100/G41</f>
-        <v>75.483870967741936</v>
+        <v>92.173913043478265</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
@@ -13677,7 +15728,7 @@
       </c>
       <c r="C41" s="45">
         <f t="shared" ref="C41:H41" si="2">C39+C40</f>
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="D41" s="46">
         <f t="shared" si="2"/>
@@ -13685,7 +15736,7 @@
       </c>
       <c r="E41" s="45">
         <f t="shared" si="2"/>
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="F41" s="46">
         <f t="shared" si="2"/>
@@ -13693,7 +15744,7 @@
       </c>
       <c r="G41" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>115</v>
       </c>
       <c r="H41" s="46">
         <f t="shared" si="2"/>
@@ -13757,7 +15808,7 @@
       </c>
       <c r="H45" s="49">
         <f>G45*100/G47</f>
-        <v>3.0303030303030303</v>
+        <v>2.8571428571428572</v>
       </c>
       <c r="I45" s="39">
         <f>SUM(F5:F7)</f>
@@ -13791,11 +15842,11 @@
       </c>
       <c r="G46" s="42">
         <f>SUM(E15:E28)</f>
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="H46" s="50">
         <f>G46*100/G47</f>
-        <v>96.969696969696969</v>
+        <v>97.142857142857139</v>
       </c>
       <c r="I46" s="42">
         <f>SUM(F15:F28)</f>
@@ -13829,7 +15880,7 @@
       </c>
       <c r="G47" s="45">
         <f t="shared" si="4"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H47" s="46">
         <f>H45+H46</f>
@@ -13852,13 +15903,13 @@
       <c r="B49" s="51"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="70" t="s">
+      <c r="B50" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="72" t="s">
         <v>54</v>
       </c>
       <c r="M50" s="52"/>
@@ -13882,10 +15933,10 @@
         <v>55</v>
       </c>
       <c r="C52" s="32">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D52" s="32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M52" s="52"/>
     </row>
@@ -13906,44 +15957,44 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="51"/>
-      <c r="B55" s="55" t="s">
+      <c r="B55" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="55" t="s">
+      <c r="C55" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D55" s="55" t="s">
+      <c r="D55" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="E55" s="55" t="s">
+      <c r="E55" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="55" t="s">
+      <c r="F55" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="G55" s="55" t="s">
+      <c r="G55" s="86" t="s">
         <v>42</v>
       </c>
       <c r="M55" s="52"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="51"/>
-      <c r="B56" s="56" t="s">
+      <c r="B56" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="56">
-        <v>0</v>
-      </c>
-      <c r="D56" s="56">
-        <v>0</v>
-      </c>
-      <c r="E56" s="56">
-        <v>0</v>
-      </c>
-      <c r="F56" s="56">
-        <v>0</v>
-      </c>
-      <c r="G56" s="56">
+      <c r="C56" s="81">
+        <v>0</v>
+      </c>
+      <c r="D56" s="81">
+        <v>0</v>
+      </c>
+      <c r="E56" s="81">
+        <v>0</v>
+      </c>
+      <c r="F56" s="81">
+        <v>0</v>
+      </c>
+      <c r="G56" s="81">
         <f>SUM(C56:F56)</f>
         <v>0</v>
       </c>
@@ -13951,142 +16002,141 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="51"/>
-      <c r="B57" s="56" t="s">
+      <c r="B57" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="56">
-        <v>5</v>
-      </c>
-      <c r="D57" s="56">
+      <c r="C57" s="81">
+        <v>7</v>
+      </c>
+      <c r="D57" s="81">
         <v>10</v>
       </c>
-      <c r="E57" s="56">
+      <c r="E57" s="81">
         <v>10</v>
       </c>
-      <c r="F57" s="56">
+      <c r="F57" s="81">
         <v>3</v>
       </c>
-      <c r="G57" s="56">
+      <c r="G57" s="81">
         <f>SUM(C57:F57)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M57" s="52"/>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="51"/>
-      <c r="B58" s="56" t="s">
+      <c r="B58" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="C58" s="56">
-        <f t="shared" ref="C58:E58" si="6">SUM(C56:C57)</f>
-        <v>5</v>
-      </c>
-      <c r="D58" s="56">
+      <c r="C58" s="81">
+        <v>6</v>
+      </c>
+      <c r="D58" s="81">
+        <f t="shared" ref="D58:E58" si="6">SUM(D56:D57)</f>
+        <v>10</v>
+      </c>
+      <c r="E58" s="81">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="E58" s="56">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="F58" s="56">
+      <c r="F58" s="81">
         <f>SUM(F56:F57)</f>
         <v>3</v>
       </c>
-      <c r="G58" s="56">
+      <c r="G58" s="81">
         <f>SUM(G56:G57)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M58" s="52"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="51"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
-      <c r="F59" s="57"/>
-      <c r="G59" s="57"/>
+      <c r="B59" s="82"/>
+      <c r="C59" s="82"/>
+      <c r="D59" s="82"/>
+      <c r="E59" s="82"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="82"/>
       <c r="M59" s="52"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="51"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="58"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
+      <c r="B60" s="82"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="84"/>
       <c r="M60" s="52"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="51"/>
-      <c r="B61" s="110" t="s">
+      <c r="B61" s="113" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="111"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
-      <c r="F61" s="57"/>
-      <c r="G61" s="57"/>
+      <c r="C61" s="114"/>
+      <c r="D61" s="82"/>
+      <c r="E61" s="82"/>
+      <c r="F61" s="82"/>
+      <c r="G61" s="82"/>
       <c r="M61" s="52"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="51"/>
-      <c r="B62" s="60" t="s">
+      <c r="B62" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="C62" s="56">
+      <c r="C62" s="81">
         <f>C58</f>
-        <v>5</v>
-      </c>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
+        <v>6</v>
+      </c>
+      <c r="D62" s="82"/>
+      <c r="E62" s="82"/>
+      <c r="F62" s="82"/>
+      <c r="G62" s="82"/>
       <c r="M62" s="52"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="51"/>
-      <c r="B63" s="60" t="s">
+      <c r="B63" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="C63" s="56">
+      <c r="C63" s="81">
         <f>D58</f>
         <v>10</v>
       </c>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
+      <c r="D63" s="82"/>
+      <c r="E63" s="82"/>
+      <c r="F63" s="82"/>
+      <c r="G63" s="82"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="51"/>
-      <c r="B64" s="60" t="s">
+      <c r="B64" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="C64" s="56">
+      <c r="C64" s="81">
         <f>E58</f>
         <v>10</v>
       </c>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
+      <c r="D64" s="82"/>
+      <c r="E64" s="82"/>
+      <c r="F64" s="82"/>
+      <c r="G64" s="82"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="51"/>
-      <c r="B65" s="60" t="s">
+      <c r="B65" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="C65" s="56">
+      <c r="C65" s="81">
         <f>F58</f>
         <v>3</v>
       </c>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="82"/>
+      <c r="F65" s="82"/>
+      <c r="G65" s="82"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="51"/>
@@ -14680,2061 +16730,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y105"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50:G65"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="9.109375" style="2"/>
-    <col min="2" max="2" width="21.44140625" style="2" customWidth="1"/>
-    <col min="3" max="6" width="9.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.109375" style="2" customWidth="1"/>
-    <col min="9" max="11" width="9.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="9.109375" style="2"/>
-    <col min="13" max="13" width="17.5546875" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="112"/>
-      <c r="C3" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="102"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="103"/>
-      <c r="I3" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="105"/>
-    </row>
-    <row r="4" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="108"/>
-      <c r="C4" s="73" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="73" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="73" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="108"/>
-      <c r="J4" s="108"/>
-      <c r="K4" s="106"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0</v>
-      </c>
-      <c r="D5" s="6">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>4</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>4</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="7"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>0</v>
-      </c>
-      <c r="F6" s="9">
-        <v>0</v>
-      </c>
-      <c r="G6" s="9">
-        <v>5</v>
-      </c>
-      <c r="H6" s="9">
-        <v>3</v>
-      </c>
-      <c r="I6" s="9">
-        <v>0</v>
-      </c>
-      <c r="J6" s="9">
-        <v>8</v>
-      </c>
-      <c r="K6" s="9">
-        <v>0</v>
-      </c>
-      <c r="L6" s="7"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="11">
-        <v>0</v>
-      </c>
-      <c r="D7" s="11">
-        <v>0</v>
-      </c>
-      <c r="E7" s="11">
-        <v>2</v>
-      </c>
-      <c r="F7" s="11">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11">
-        <v>6</v>
-      </c>
-      <c r="I7" s="11">
-        <v>6</v>
-      </c>
-      <c r="J7" s="11">
-        <v>0</v>
-      </c>
-      <c r="K7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="13">
-        <f>SUM(C5:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="13">
-        <f t="shared" ref="D8:K8" si="0">SUM(D5:D7)</f>
-        <v>12</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="I8" s="13">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="J8" s="13">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="103"/>
-      <c r="K12" s="104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="112"/>
-      <c r="C13" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="103"/>
-      <c r="I13" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="K13" s="105"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="108"/>
-      <c r="C14" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="108"/>
-      <c r="J14" s="108"/>
-      <c r="K14" s="106"/>
-    </row>
-    <row r="15" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="17">
-        <v>18</v>
-      </c>
-      <c r="D15" s="17">
-        <v>22</v>
-      </c>
-      <c r="E15" s="17">
-        <v>4</v>
-      </c>
-      <c r="F15" s="17">
-        <v>4</v>
-      </c>
-      <c r="G15" s="17">
-        <v>41</v>
-      </c>
-      <c r="H15" s="17">
-        <v>7</v>
-      </c>
-      <c r="I15" s="17">
-        <f>5+37</f>
-        <v>42</v>
-      </c>
-      <c r="J15" s="17">
-        <v>1</v>
-      </c>
-      <c r="K15" s="17">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="19">
-        <v>7</v>
-      </c>
-      <c r="D16" s="19">
-        <v>9</v>
-      </c>
-      <c r="E16" s="19">
-        <v>3</v>
-      </c>
-      <c r="F16" s="19">
-        <v>4</v>
-      </c>
-      <c r="G16" s="19">
-        <v>12</v>
-      </c>
-      <c r="H16" s="19">
-        <v>0</v>
-      </c>
-      <c r="I16" s="19">
-        <v>1</v>
-      </c>
-      <c r="J16" s="19">
-        <v>11</v>
-      </c>
-      <c r="K16" s="19">
-        <v>3</v>
-      </c>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="17">
-        <v>1</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>0</v>
-      </c>
-      <c r="G17" s="17">
-        <v>1</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
-        <v>1</v>
-      </c>
-      <c r="K17" s="17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="20"/>
-    </row>
-    <row r="18" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="19">
-        <v>6</v>
-      </c>
-      <c r="D18" s="19">
-        <v>15</v>
-      </c>
-      <c r="E18" s="19">
-        <v>6</v>
-      </c>
-      <c r="F18" s="19">
-        <v>5</v>
-      </c>
-      <c r="G18" s="19">
-        <v>19</v>
-      </c>
-      <c r="H18" s="19">
-        <v>13</v>
-      </c>
-      <c r="I18" s="19">
-        <v>1</v>
-      </c>
-      <c r="J18" s="19">
-        <v>31</v>
-      </c>
-      <c r="K18" s="19">
-        <v>1</v>
-      </c>
-      <c r="L18" s="20"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="17">
-        <v>1</v>
-      </c>
-      <c r="D19" s="17">
-        <v>2</v>
-      </c>
-      <c r="E19" s="17">
-        <v>11</v>
-      </c>
-      <c r="F19" s="17">
-        <v>0</v>
-      </c>
-      <c r="G19" s="17">
-        <v>13</v>
-      </c>
-      <c r="H19" s="17">
-        <v>1</v>
-      </c>
-      <c r="I19" s="17">
-        <v>3</v>
-      </c>
-      <c r="J19" s="17">
-        <v>11</v>
-      </c>
-      <c r="K19" s="17">
-        <v>0</v>
-      </c>
-      <c r="L19" s="20"/>
-    </row>
-    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="19">
-        <v>6</v>
-      </c>
-      <c r="D20" s="19">
-        <v>6</v>
-      </c>
-      <c r="E20" s="19">
-        <v>5</v>
-      </c>
-      <c r="F20" s="19">
-        <v>4</v>
-      </c>
-      <c r="G20" s="19">
-        <v>12</v>
-      </c>
-      <c r="H20" s="19">
-        <v>9</v>
-      </c>
-      <c r="I20" s="19">
-        <v>4</v>
-      </c>
-      <c r="J20" s="19">
-        <v>17</v>
-      </c>
-      <c r="K20" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="17">
-        <v>24</v>
-      </c>
-      <c r="D21" s="17">
-        <v>18</v>
-      </c>
-      <c r="E21" s="17">
-        <v>13</v>
-      </c>
-      <c r="F21" s="17">
-        <v>10</v>
-      </c>
-      <c r="G21" s="17">
-        <v>33</v>
-      </c>
-      <c r="H21" s="17">
-        <v>25</v>
-      </c>
-      <c r="I21" s="17">
-        <v>3</v>
-      </c>
-      <c r="J21" s="17">
-        <v>60</v>
-      </c>
-      <c r="K21" s="17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="19">
-        <v>34</v>
-      </c>
-      <c r="D22" s="19">
-        <v>26</v>
-      </c>
-      <c r="E22" s="19">
-        <v>3</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0</v>
-      </c>
-      <c r="G22" s="19">
-        <v>38</v>
-      </c>
-      <c r="H22" s="19">
-        <v>25</v>
-      </c>
-      <c r="I22" s="19">
-        <v>10</v>
-      </c>
-      <c r="J22" s="19">
-        <v>53</v>
-      </c>
-      <c r="K22" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="17">
-        <v>1</v>
-      </c>
-      <c r="D23" s="17">
-        <v>15</v>
-      </c>
-      <c r="E23" s="17">
-        <v>1</v>
-      </c>
-      <c r="F23" s="17">
-        <v>0</v>
-      </c>
-      <c r="G23" s="17">
-        <v>5</v>
-      </c>
-      <c r="H23" s="17">
-        <v>12</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
-        <v>17</v>
-      </c>
-      <c r="K23" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="19">
-        <v>0</v>
-      </c>
-      <c r="D24" s="19">
-        <v>2</v>
-      </c>
-      <c r="E24" s="19">
-        <v>5</v>
-      </c>
-      <c r="F24" s="19">
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
-        <v>7</v>
-      </c>
-      <c r="H24" s="19">
-        <v>0</v>
-      </c>
-      <c r="I24" s="19">
-        <v>3</v>
-      </c>
-      <c r="J24" s="19">
-        <v>4</v>
-      </c>
-      <c r="K24" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="21">
-        <v>0</v>
-      </c>
-      <c r="D25" s="21">
-        <v>0</v>
-      </c>
-      <c r="E25" s="21">
-        <v>12</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0</v>
-      </c>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
-        <v>12</v>
-      </c>
-      <c r="I25" s="21">
-        <v>0</v>
-      </c>
-      <c r="J25" s="21">
-        <v>12</v>
-      </c>
-      <c r="K25" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="19">
-        <v>0</v>
-      </c>
-      <c r="D26" s="19">
-        <v>0</v>
-      </c>
-      <c r="E26" s="19">
-        <v>0</v>
-      </c>
-      <c r="F26" s="19">
-        <v>0</v>
-      </c>
-      <c r="G26" s="19">
-        <v>0</v>
-      </c>
-      <c r="H26" s="19">
-        <v>0</v>
-      </c>
-      <c r="I26" s="19">
-        <v>0</v>
-      </c>
-      <c r="J26" s="19">
-        <v>0</v>
-      </c>
-      <c r="K26" s="19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
-      <c r="D27" s="21">
-        <v>0</v>
-      </c>
-      <c r="E27" s="21">
-        <v>2</v>
-      </c>
-      <c r="F27" s="21">
-        <v>0</v>
-      </c>
-      <c r="G27" s="21">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
-        <v>2</v>
-      </c>
-      <c r="I27" s="21">
-        <v>0</v>
-      </c>
-      <c r="J27" s="21">
-        <v>2</v>
-      </c>
-      <c r="K27" s="21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="19">
-        <v>0</v>
-      </c>
-      <c r="D28" s="19">
-        <v>10</v>
-      </c>
-      <c r="E28" s="19">
-        <v>3</v>
-      </c>
-      <c r="F28" s="19">
-        <v>0</v>
-      </c>
-      <c r="G28" s="19">
-        <v>13</v>
-      </c>
-      <c r="H28" s="19">
-        <v>0</v>
-      </c>
-      <c r="I28" s="19">
-        <v>9</v>
-      </c>
-      <c r="J28" s="19">
-        <v>4</v>
-      </c>
-      <c r="K28" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="24">
-        <f>SUM(C15:C28)</f>
-        <v>98</v>
-      </c>
-      <c r="D29" s="24">
-        <f t="shared" ref="D29:K29" si="1">SUM(D15:D28)</f>
-        <v>125</v>
-      </c>
-      <c r="E29" s="24">
-        <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="F29" s="24">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="G29" s="24">
-        <f t="shared" si="1"/>
-        <v>194</v>
-      </c>
-      <c r="H29" s="24">
-        <f t="shared" si="1"/>
-        <v>106</v>
-      </c>
-      <c r="I29" s="24">
-        <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="J29" s="24">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-      <c r="K29" s="24">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="L29" s="22"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="22"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="29"/>
-    </row>
-    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="107" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33" s="101" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="101" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="104" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="112"/>
-      <c r="C34" s="101" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="102"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="101" t="s">
-        <v>6</v>
-      </c>
-      <c r="H34" s="103"/>
-      <c r="I34" s="107" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="107" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" s="105"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="108"/>
-      <c r="C35" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="72" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="72" t="s">
-        <v>13</v>
-      </c>
-      <c r="H35" s="72" t="s">
-        <v>14</v>
-      </c>
-      <c r="I35" s="108"/>
-      <c r="J35" s="108"/>
-      <c r="K35" s="106"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B36" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36" s="31">
-        <f>SUM(C5:C7, C15:C28)</f>
-        <v>98</v>
-      </c>
-      <c r="D36" s="32">
-        <f>SUM(D5:D7, D15:D28)</f>
-        <v>137</v>
-      </c>
-      <c r="E36" s="31">
-        <f>SUM(D5:D7, E15:E28)</f>
-        <v>80</v>
-      </c>
-      <c r="F36" s="31">
-        <f>SUM(E5:E7, F15:F28)</f>
-        <v>29</v>
-      </c>
-      <c r="G36" s="31">
-        <f>SUM(G5:G7, G15:G28)</f>
-        <v>203</v>
-      </c>
-      <c r="H36" s="31">
-        <f>SUM(H5:H7, H15:H28)</f>
-        <v>115</v>
-      </c>
-      <c r="I36" s="31">
-        <f>SUM(I5:I7, I15:I28)</f>
-        <v>82</v>
-      </c>
-      <c r="J36" s="31">
-        <f>SUM(J5:J7, J15:J28)</f>
-        <v>236</v>
-      </c>
-      <c r="K36" s="31">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="G37" s="28"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
-      <c r="J37" s="34"/>
-    </row>
-    <row r="38" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B38" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D38" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="H38" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="I38" s="33"/>
-      <c r="J38" s="34"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B39" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="39">
-        <f>SUM(C5:F7)</f>
-        <v>14</v>
-      </c>
-      <c r="D39" s="40">
-        <f>C39*100/C41</f>
-        <v>4.2168674698795181</v>
-      </c>
-      <c r="E39" s="39">
-        <f>SUM(G5:G7)</f>
-        <v>9</v>
-      </c>
-      <c r="F39" s="40">
-        <f>E39*100/E41</f>
-        <v>4.4334975369458132</v>
-      </c>
-      <c r="G39" s="39">
-        <f>SUM(H5:H7)</f>
-        <v>9</v>
-      </c>
-      <c r="H39" s="40">
-        <f>G39*100/G41</f>
-        <v>7.8260869565217392</v>
-      </c>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="42">
-        <f>SUM(C15:F28)</f>
-        <v>318</v>
-      </c>
-      <c r="D40" s="43">
-        <f>C40*100/C41</f>
-        <v>95.783132530120483</v>
-      </c>
-      <c r="E40" s="42">
-        <f>SUM(G15:G28)</f>
-        <v>194</v>
-      </c>
-      <c r="F40" s="43">
-        <f>E40*100/E41</f>
-        <v>95.566502463054192</v>
-      </c>
-      <c r="G40" s="42">
-        <f>SUM(H15:H28)</f>
-        <v>106</v>
-      </c>
-      <c r="H40" s="43">
-        <f>G40*100/G41</f>
-        <v>92.173913043478265</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="45">
-        <f t="shared" ref="C41:H41" si="2">C39+C40</f>
-        <v>332</v>
-      </c>
-      <c r="D41" s="46">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="E41" s="45">
-        <f t="shared" si="2"/>
-        <v>203</v>
-      </c>
-      <c r="F41" s="46">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-      <c r="G41" s="45">
-        <f t="shared" si="2"/>
-        <v>115</v>
-      </c>
-      <c r="H41" s="46">
-        <f t="shared" si="2"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="I44" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="J44" s="47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C45" s="38">
-        <f>SUM(C5:C7)</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="49">
-        <f>C45*100/C47</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="39">
-        <f>SUM(D5:D7)</f>
-        <v>12</v>
-      </c>
-      <c r="F45" s="49">
-        <f>E45*100/E47</f>
-        <v>8.7591240875912408</v>
-      </c>
-      <c r="G45" s="39">
-        <f>SUM(E5:E7)</f>
-        <v>2</v>
-      </c>
-      <c r="H45" s="49">
-        <f>G45*100/G47</f>
-        <v>2.8571428571428572</v>
-      </c>
-      <c r="I45" s="39">
-        <f>SUM(F5:F7)</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="49">
-        <f>I45*100/I47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="41">
-        <f>SUM(C15:C28)</f>
-        <v>98</v>
-      </c>
-      <c r="D46" s="50">
-        <f>C46*100/C47</f>
-        <v>100</v>
-      </c>
-      <c r="E46" s="42">
-        <f>SUM(D15:D28)</f>
-        <v>125</v>
-      </c>
-      <c r="F46" s="50">
-        <f>E46*100/E47</f>
-        <v>91.240875912408754</v>
-      </c>
-      <c r="G46" s="42">
-        <f>SUM(E15:E28)</f>
-        <v>68</v>
-      </c>
-      <c r="H46" s="50">
-        <f>G46*100/G47</f>
-        <v>97.142857142857139</v>
-      </c>
-      <c r="I46" s="42">
-        <f>SUM(F15:F28)</f>
-        <v>27</v>
-      </c>
-      <c r="J46" s="50">
-        <f>I46*100/I47</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="44">
-        <f>C45+C46</f>
-        <v>98</v>
-      </c>
-      <c r="D47" s="46">
-        <f t="shared" ref="D47" si="3">D45+D46</f>
-        <v>100</v>
-      </c>
-      <c r="E47" s="45">
-        <f>E45+E46</f>
-        <v>137</v>
-      </c>
-      <c r="F47" s="46">
-        <f t="shared" ref="F47:G47" si="4">F45+F46</f>
-        <v>100</v>
-      </c>
-      <c r="G47" s="45">
-        <f t="shared" si="4"/>
-        <v>70</v>
-      </c>
-      <c r="H47" s="46">
-        <f>H45+H46</f>
-        <v>100</v>
-      </c>
-      <c r="I47" s="45">
-        <f t="shared" ref="I47" si="5">I45+I46</f>
-        <v>27</v>
-      </c>
-      <c r="J47" s="46">
-        <f>J45+J46</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="51"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="51"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B50" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C50" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="D50" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="M50" s="52"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B51" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C51" s="32">
-        <f>SUM(U90:U95)</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="32">
-        <f>SUM(V90:V95)</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="52"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B52" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="32">
-        <v>20</v>
-      </c>
-      <c r="D52" s="32">
-        <v>5</v>
-      </c>
-      <c r="M52" s="52"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A53" s="53"/>
-      <c r="D53" s="54"/>
-      <c r="M53" s="52"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="51"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="M54" s="52"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="51"/>
-      <c r="B55" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="86" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="86" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="86" t="s">
-        <v>11</v>
-      </c>
-      <c r="F55" s="86" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="M55" s="52"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="51"/>
-      <c r="B56" s="81" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="81">
-        <v>0</v>
-      </c>
-      <c r="D56" s="81">
-        <v>0</v>
-      </c>
-      <c r="E56" s="81">
-        <v>0</v>
-      </c>
-      <c r="F56" s="81">
-        <v>0</v>
-      </c>
-      <c r="G56" s="81">
-        <f>SUM(C56:F56)</f>
-        <v>0</v>
-      </c>
-      <c r="M56" s="52"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="51"/>
-      <c r="B57" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="81">
-        <v>7</v>
-      </c>
-      <c r="D57" s="81">
-        <v>10</v>
-      </c>
-      <c r="E57" s="81">
-        <v>10</v>
-      </c>
-      <c r="F57" s="81">
-        <v>3</v>
-      </c>
-      <c r="G57" s="81">
-        <f>SUM(C57:F57)</f>
-        <v>30</v>
-      </c>
-      <c r="M57" s="52"/>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="51"/>
-      <c r="B58" s="81" t="s">
-        <v>42</v>
-      </c>
-      <c r="C58" s="81">
-        <v>6</v>
-      </c>
-      <c r="D58" s="81">
-        <f t="shared" ref="D58:E58" si="6">SUM(D56:D57)</f>
-        <v>10</v>
-      </c>
-      <c r="E58" s="81">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="F58" s="81">
-        <f>SUM(F56:F57)</f>
-        <v>3</v>
-      </c>
-      <c r="G58" s="81">
-        <f>SUM(G56:G57)</f>
-        <v>30</v>
-      </c>
-      <c r="M58" s="52"/>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="51"/>
-      <c r="B59" s="82"/>
-      <c r="C59" s="82"/>
-      <c r="D59" s="82"/>
-      <c r="E59" s="82"/>
-      <c r="F59" s="82"/>
-      <c r="G59" s="82"/>
-      <c r="M59" s="52"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="51"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="M60" s="52"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="51"/>
-      <c r="B61" s="113" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="114"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="82"/>
-      <c r="G61" s="82"/>
-      <c r="M61" s="52"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="51"/>
-      <c r="B62" s="85" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="81">
-        <f>C58</f>
-        <v>6</v>
-      </c>
-      <c r="D62" s="82"/>
-      <c r="E62" s="82"/>
-      <c r="F62" s="82"/>
-      <c r="G62" s="82"/>
-      <c r="M62" s="52"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" s="51"/>
-      <c r="B63" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="C63" s="81">
-        <f>D58</f>
-        <v>10</v>
-      </c>
-      <c r="D63" s="82"/>
-      <c r="E63" s="82"/>
-      <c r="F63" s="82"/>
-      <c r="G63" s="82"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" s="51"/>
-      <c r="B64" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="C64" s="81">
-        <f>E58</f>
-        <v>10</v>
-      </c>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="82"/>
-      <c r="G64" s="82"/>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A65" s="51"/>
-      <c r="B65" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="81">
-        <f>F58</f>
-        <v>3</v>
-      </c>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="82"/>
-      <c r="G65" s="82"/>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A66" s="51"/>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A67" s="51"/>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L71" s="22"/>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
-    </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H77" s="22"/>
-      <c r="I77" s="22"/>
-      <c r="J77" s="22"/>
-    </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H78" s="22"/>
-      <c r="I78" s="22"/>
-      <c r="J78" s="22"/>
-    </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H79" s="22"/>
-      <c r="I79" s="22"/>
-      <c r="J79" s="22"/>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H80" s="22"/>
-      <c r="I80" s="22"/>
-      <c r="J80" s="22"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="H81" s="22"/>
-      <c r="I81" s="22"/>
-      <c r="J81" s="67"/>
-      <c r="K81" s="65"/>
-      <c r="L81" s="65"/>
-      <c r="M81" s="65"/>
-      <c r="N81" s="65"/>
-      <c r="O81" s="65"/>
-      <c r="P81" s="65"/>
-      <c r="Q81" s="65"/>
-      <c r="R81" s="65"/>
-      <c r="S81" s="65"/>
-      <c r="T81" s="65"/>
-      <c r="U81" s="65"/>
-      <c r="V81" s="65"/>
-      <c r="W81" s="65"/>
-      <c r="X81" s="65"/>
-      <c r="Y81" s="65"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="B82" s="22"/>
-      <c r="C82" s="22"/>
-      <c r="D82" s="22"/>
-      <c r="E82" s="22"/>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-      <c r="I82" s="22"/>
-      <c r="J82" s="67"/>
-      <c r="K82" s="65"/>
-      <c r="L82" s="65"/>
-      <c r="M82" s="65"/>
-      <c r="N82" s="65"/>
-      <c r="O82" s="65"/>
-      <c r="P82" s="65"/>
-      <c r="Q82" s="65"/>
-      <c r="R82" s="65"/>
-      <c r="S82" s="65"/>
-      <c r="T82" s="65"/>
-      <c r="U82" s="65"/>
-      <c r="V82" s="65"/>
-      <c r="W82" s="65"/>
-      <c r="X82" s="65"/>
-      <c r="Y82" s="65"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="22"/>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="65"/>
-      <c r="L83" s="65"/>
-      <c r="M83" s="65"/>
-      <c r="N83" s="65"/>
-      <c r="O83" s="65"/>
-      <c r="P83" s="65"/>
-      <c r="Q83" s="65"/>
-      <c r="R83" s="65"/>
-      <c r="S83" s="65"/>
-      <c r="T83" s="65"/>
-      <c r="U83" s="65"/>
-      <c r="V83" s="65"/>
-      <c r="W83" s="65"/>
-      <c r="X83" s="65"/>
-      <c r="Y83" s="65"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="61"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="67"/>
-      <c r="K84" s="65"/>
-      <c r="L84" s="65"/>
-      <c r="M84" s="65"/>
-      <c r="N84" s="65"/>
-      <c r="O84" s="65"/>
-      <c r="P84" s="68"/>
-      <c r="Q84" s="69"/>
-      <c r="R84" s="65"/>
-      <c r="S84" s="65"/>
-      <c r="T84" s="65"/>
-      <c r="U84" s="65"/>
-      <c r="V84" s="65"/>
-      <c r="W84" s="65"/>
-      <c r="X84" s="65"/>
-      <c r="Y84" s="65"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A85" s="22"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="65"/>
-      <c r="H85" s="22"/>
-      <c r="I85" s="22"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="65"/>
-      <c r="L85" s="65"/>
-      <c r="M85" s="65"/>
-      <c r="N85" s="64"/>
-      <c r="O85" s="65"/>
-      <c r="P85" s="65"/>
-      <c r="Q85" s="65"/>
-      <c r="R85" s="65"/>
-      <c r="S85" s="65"/>
-      <c r="T85" s="65"/>
-      <c r="U85" s="65"/>
-      <c r="V85" s="65"/>
-      <c r="W85" s="65"/>
-      <c r="X85" s="65"/>
-      <c r="Y85" s="65"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A86" s="22"/>
-      <c r="B86" s="65"/>
-      <c r="H86" s="22"/>
-      <c r="I86" s="22"/>
-      <c r="J86" s="67"/>
-      <c r="K86" s="65"/>
-      <c r="L86" s="65"/>
-      <c r="M86" s="65"/>
-      <c r="N86" s="65"/>
-      <c r="O86" s="65"/>
-      <c r="P86" s="65"/>
-      <c r="Q86" s="65"/>
-      <c r="R86" s="65"/>
-      <c r="S86" s="65"/>
-      <c r="T86" s="65"/>
-      <c r="U86" s="65"/>
-      <c r="V86" s="65"/>
-      <c r="W86" s="65"/>
-      <c r="X86" s="65"/>
-      <c r="Y86" s="65"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A87" s="22"/>
-      <c r="H87" s="22"/>
-      <c r="I87" s="22"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="65"/>
-      <c r="L87" s="65"/>
-      <c r="M87" s="65"/>
-      <c r="N87" s="64"/>
-      <c r="O87" s="65"/>
-      <c r="P87" s="65"/>
-      <c r="Q87" s="65"/>
-      <c r="R87" s="69"/>
-      <c r="S87" s="65"/>
-      <c r="T87" s="65"/>
-      <c r="U87" s="65"/>
-      <c r="V87" s="65"/>
-      <c r="W87" s="65"/>
-      <c r="X87" s="65"/>
-      <c r="Y87" s="65"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A88" s="22"/>
-      <c r="J88" s="65"/>
-      <c r="K88" s="65"/>
-      <c r="L88" s="65"/>
-      <c r="M88" s="65"/>
-      <c r="N88" s="65"/>
-      <c r="O88" s="65"/>
-      <c r="P88" s="65"/>
-      <c r="Q88" s="65"/>
-      <c r="R88" s="65"/>
-      <c r="S88" s="65"/>
-      <c r="T88" s="65"/>
-      <c r="U88" s="65"/>
-      <c r="V88" s="65"/>
-      <c r="W88" s="65"/>
-      <c r="X88" s="65"/>
-      <c r="Y88" s="65"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
-      <c r="J89" s="65"/>
-      <c r="K89" s="65"/>
-      <c r="L89" s="65"/>
-      <c r="M89" s="65"/>
-      <c r="N89" s="64"/>
-      <c r="O89" s="65"/>
-      <c r="P89" s="65"/>
-      <c r="Q89" s="65"/>
-      <c r="R89" s="65"/>
-      <c r="S89" s="69"/>
-      <c r="T89" s="69"/>
-      <c r="U89" s="69"/>
-      <c r="V89" s="69"/>
-      <c r="W89" s="65"/>
-      <c r="X89" s="65"/>
-      <c r="Y89" s="65"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
-      <c r="J90" s="65"/>
-      <c r="K90" s="65"/>
-      <c r="L90" s="65"/>
-      <c r="M90" s="65"/>
-      <c r="N90" s="64"/>
-      <c r="O90" s="65"/>
-      <c r="P90" s="65"/>
-      <c r="Q90" s="65"/>
-      <c r="R90" s="65"/>
-      <c r="S90" s="65"/>
-      <c r="T90" s="65"/>
-      <c r="U90" s="65"/>
-      <c r="V90" s="65"/>
-      <c r="W90" s="65"/>
-      <c r="X90" s="65"/>
-      <c r="Y90" s="65"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
-      <c r="J91" s="65"/>
-      <c r="K91" s="65"/>
-      <c r="L91" s="65"/>
-      <c r="M91" s="65"/>
-      <c r="N91" s="65"/>
-      <c r="O91" s="65"/>
-      <c r="P91" s="65"/>
-      <c r="Q91" s="65"/>
-      <c r="R91" s="65"/>
-      <c r="S91" s="65"/>
-      <c r="T91" s="65"/>
-      <c r="U91" s="65"/>
-      <c r="V91" s="65"/>
-      <c r="W91" s="65"/>
-      <c r="X91" s="65"/>
-      <c r="Y91" s="65"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
-      <c r="J92" s="65"/>
-      <c r="K92" s="65"/>
-      <c r="L92" s="65"/>
-      <c r="M92" s="65"/>
-      <c r="N92" s="64"/>
-      <c r="O92" s="65"/>
-      <c r="P92" s="65"/>
-      <c r="Q92" s="65"/>
-      <c r="R92" s="65"/>
-      <c r="S92" s="65"/>
-      <c r="T92" s="65"/>
-      <c r="U92" s="65"/>
-      <c r="V92" s="65"/>
-      <c r="W92" s="65"/>
-      <c r="X92" s="65"/>
-      <c r="Y92" s="65"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A93" s="22"/>
-      <c r="J93" s="65"/>
-      <c r="K93" s="65"/>
-      <c r="L93" s="65"/>
-      <c r="M93" s="65"/>
-      <c r="N93" s="64"/>
-      <c r="O93" s="65"/>
-      <c r="P93" s="65"/>
-      <c r="Q93" s="65"/>
-      <c r="R93" s="65"/>
-      <c r="S93" s="65"/>
-      <c r="T93" s="65"/>
-      <c r="U93" s="65"/>
-      <c r="V93" s="65"/>
-      <c r="W93" s="65"/>
-      <c r="X93" s="65"/>
-      <c r="Y93" s="65"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A94" s="22"/>
-      <c r="J94" s="65"/>
-      <c r="K94" s="65"/>
-      <c r="L94" s="65"/>
-      <c r="M94" s="65"/>
-      <c r="N94" s="65"/>
-      <c r="O94" s="65"/>
-      <c r="P94" s="65"/>
-      <c r="Q94" s="65"/>
-      <c r="R94" s="65"/>
-      <c r="S94" s="65"/>
-      <c r="T94" s="65"/>
-      <c r="U94" s="65"/>
-      <c r="V94" s="65"/>
-      <c r="W94" s="65"/>
-      <c r="X94" s="65"/>
-      <c r="Y94" s="65"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A95" s="22"/>
-      <c r="J95" s="65"/>
-      <c r="K95" s="65"/>
-      <c r="L95" s="65"/>
-      <c r="M95" s="65"/>
-      <c r="N95" s="65"/>
-      <c r="O95" s="65"/>
-      <c r="P95" s="65"/>
-      <c r="Q95" s="65"/>
-      <c r="R95" s="65"/>
-      <c r="S95" s="65"/>
-      <c r="T95" s="65"/>
-      <c r="U95" s="65"/>
-      <c r="V95" s="65"/>
-      <c r="W95" s="65"/>
-      <c r="X95" s="65"/>
-      <c r="Y95" s="65"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A96" s="22"/>
-      <c r="C96" s="62"/>
-      <c r="J96" s="65"/>
-      <c r="K96" s="65"/>
-      <c r="L96" s="65"/>
-      <c r="M96" s="65"/>
-      <c r="N96" s="65"/>
-      <c r="O96" s="65"/>
-      <c r="P96" s="65"/>
-      <c r="Q96" s="65"/>
-      <c r="R96" s="65"/>
-      <c r="S96" s="65"/>
-      <c r="T96" s="65"/>
-      <c r="U96" s="65"/>
-      <c r="V96" s="65"/>
-      <c r="W96" s="65"/>
-      <c r="X96" s="65"/>
-      <c r="Y96" s="65"/>
-    </row>
-    <row r="97" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="D97" s="63"/>
-      <c r="E97" s="63"/>
-      <c r="F97" s="63"/>
-      <c r="G97" s="63"/>
-      <c r="J97" s="65"/>
-      <c r="K97" s="65"/>
-      <c r="L97" s="65"/>
-      <c r="M97" s="65"/>
-      <c r="N97" s="64"/>
-      <c r="O97" s="65"/>
-      <c r="P97" s="65"/>
-      <c r="Q97" s="65"/>
-      <c r="R97" s="65"/>
-      <c r="S97" s="65"/>
-      <c r="T97" s="65"/>
-      <c r="U97" s="65"/>
-      <c r="V97" s="65"/>
-      <c r="W97" s="65"/>
-      <c r="X97" s="65"/>
-      <c r="Y97" s="65"/>
-    </row>
-    <row r="98" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="J98" s="65"/>
-      <c r="K98" s="65"/>
-      <c r="L98" s="65"/>
-      <c r="M98" s="65"/>
-      <c r="N98" s="64"/>
-      <c r="O98" s="65"/>
-      <c r="P98" s="65"/>
-      <c r="Q98" s="65"/>
-      <c r="R98" s="65"/>
-      <c r="S98" s="65"/>
-      <c r="T98" s="65"/>
-      <c r="U98" s="65"/>
-      <c r="V98" s="65"/>
-      <c r="W98" s="65"/>
-      <c r="X98" s="65"/>
-      <c r="Y98" s="65"/>
-    </row>
-    <row r="99" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="J99" s="65"/>
-      <c r="K99" s="65"/>
-      <c r="L99" s="65"/>
-      <c r="M99" s="65"/>
-      <c r="N99" s="65"/>
-      <c r="O99" s="65"/>
-      <c r="P99" s="65"/>
-      <c r="Q99" s="65"/>
-      <c r="R99" s="65"/>
-      <c r="S99" s="65"/>
-      <c r="T99" s="65"/>
-      <c r="U99" s="65"/>
-      <c r="V99" s="65"/>
-      <c r="W99" s="65"/>
-      <c r="X99" s="65"/>
-      <c r="Y99" s="65"/>
-    </row>
-    <row r="100" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="J100" s="65"/>
-      <c r="K100" s="65"/>
-      <c r="L100" s="65"/>
-      <c r="M100" s="65"/>
-      <c r="N100" s="65"/>
-      <c r="O100" s="65"/>
-      <c r="P100" s="65"/>
-      <c r="Q100" s="65"/>
-      <c r="R100" s="65"/>
-      <c r="S100" s="65"/>
-      <c r="T100" s="65"/>
-      <c r="U100" s="65"/>
-      <c r="V100" s="65"/>
-      <c r="W100" s="65"/>
-      <c r="X100" s="65"/>
-      <c r="Y100" s="65"/>
-    </row>
-    <row r="101" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="J101" s="65"/>
-      <c r="K101" s="65"/>
-      <c r="L101" s="65"/>
-      <c r="M101" s="65"/>
-      <c r="N101" s="65"/>
-      <c r="O101" s="65"/>
-      <c r="P101" s="65"/>
-      <c r="Q101" s="65"/>
-      <c r="R101" s="65"/>
-      <c r="S101" s="65"/>
-      <c r="T101" s="65"/>
-      <c r="U101" s="65"/>
-      <c r="V101" s="65"/>
-      <c r="W101" s="65"/>
-      <c r="X101" s="65"/>
-      <c r="Y101" s="65"/>
-    </row>
-    <row r="102" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="J102" s="65"/>
-      <c r="K102" s="65"/>
-      <c r="L102" s="65"/>
-      <c r="M102" s="65"/>
-      <c r="N102" s="65"/>
-      <c r="O102" s="65"/>
-      <c r="P102" s="65"/>
-      <c r="Q102" s="65"/>
-      <c r="R102" s="65"/>
-      <c r="S102" s="65"/>
-      <c r="T102" s="65"/>
-      <c r="U102" s="65"/>
-      <c r="V102" s="65"/>
-      <c r="W102" s="65"/>
-      <c r="X102" s="65"/>
-      <c r="Y102" s="65"/>
-    </row>
-    <row r="103" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="J103" s="65"/>
-      <c r="K103" s="65"/>
-      <c r="L103" s="65"/>
-      <c r="M103" s="65"/>
-      <c r="N103" s="65"/>
-      <c r="O103" s="65"/>
-      <c r="P103" s="65"/>
-      <c r="Q103" s="65"/>
-      <c r="R103" s="65"/>
-      <c r="S103" s="65"/>
-      <c r="T103" s="65"/>
-      <c r="U103" s="65"/>
-      <c r="V103" s="65"/>
-      <c r="W103" s="65"/>
-      <c r="X103" s="65"/>
-      <c r="Y103" s="65"/>
-    </row>
-    <row r="104" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="J104" s="65"/>
-      <c r="K104" s="65"/>
-      <c r="L104" s="65"/>
-      <c r="M104" s="65"/>
-      <c r="N104" s="65"/>
-      <c r="O104" s="65"/>
-      <c r="P104" s="65"/>
-      <c r="Q104" s="65"/>
-      <c r="R104" s="65"/>
-      <c r="S104" s="65"/>
-      <c r="T104" s="65"/>
-      <c r="U104" s="65"/>
-      <c r="V104" s="65"/>
-      <c r="W104" s="65"/>
-      <c r="X104" s="65"/>
-      <c r="Y104" s="65"/>
-    </row>
-    <row r="105" spans="4:25" x14ac:dyDescent="0.3">
-      <c r="J105" s="65"/>
-      <c r="K105" s="65"/>
-      <c r="L105" s="65"/>
-      <c r="M105" s="65"/>
-      <c r="N105" s="65"/>
-      <c r="O105" s="65"/>
-      <c r="P105" s="65"/>
-      <c r="Q105" s="65"/>
-      <c r="R105" s="65"/>
-      <c r="S105" s="65"/>
-      <c r="T105" s="65"/>
-      <c r="U105" s="65"/>
-      <c r="V105" s="65"/>
-      <c r="W105" s="65"/>
-      <c r="X105" s="65"/>
-      <c r="Y105" s="65"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="K12:K14"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="K33:K35"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B18" r:id="rId1" display="http://stage.telerikacademy.com/Administration_Courses/UsersInCourses"/>
-    <hyperlink ref="B17" r:id="rId2" display="http://stage.telerikacademy.com/Administration_Courses/CourseInstanceCategoriesHierarchy"/>
-    <hyperlink ref="B16" r:id="rId3" display="http://stage.telerikacademy.com/Administration_Courses/CourseInstanceCategories"/>
-    <hyperlink ref="B15" r:id="rId4" display="http://stage.telerikacademy.com/Administration_Courses/CoursesInstancesAndLectures"/>
-    <hyperlink ref="B19" r:id="rId5" display="http://stage.telerikacademy.com/Administration_Courses/CoursesGroups"/>
-    <hyperlink ref="B20" r:id="rId6" display="http://stage.telerikacademy.com/Administration_Courses/Homework"/>
-    <hyperlink ref="B21" r:id="rId7" display="http://stage.telerikacademy.com/Administration_Courses/CoursesAndLectures"/>
-    <hyperlink ref="B23" r:id="rId8" display="http://stage.telerikacademy.com/Administration_Courses/CourseLicenses"/>
-    <hyperlink ref="B24" r:id="rId9" display="http://stage.telerikacademy.com/Administration_Courses/CourseInstancesStatistics"/>
-    <hyperlink ref="B25" r:id="rId10" display="http://stage.telerikacademy.com/Administration_Courses/CourseInstancesYearsStatistics"/>
-    <hyperlink ref="B26" r:id="rId11" display="http://stage.telerikacademy.com/Administration_Courses/Polls"/>
-    <hyperlink ref="B27" r:id="rId12" display="http://stage.telerikacademy.com/Administration_Courses/PollsStatistics"/>
-    <hyperlink ref="B28" r:id="rId13" display="http://stage.telerikacademy.com/Administration_Courses/UnenrolledUsersInCourses"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
-  <drawing r:id="rId15"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:V9"/>
@@ -16751,109 +16746,109 @@
   <sheetData>
     <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B2" s="115" t="s">
+      <c r="B2" s="116" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="118"/>
       <c r="M2" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="116"/>
-      <c r="O2" s="116"/>
-      <c r="P2" s="116"/>
-      <c r="Q2" s="116"/>
-      <c r="R2" s="116"/>
-      <c r="S2" s="116"/>
-      <c r="T2" s="116"/>
-      <c r="U2" s="116"/>
-      <c r="V2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="118"/>
     </row>
     <row r="3" spans="2:22" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="118" t="s">
+      <c r="B3" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="119" t="s">
+      <c r="C3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119" t="s">
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
       <c r="K3" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="118" t="s">
+      <c r="M3" s="119" t="s">
         <v>62</v>
       </c>
-      <c r="N3" s="119" t="s">
+      <c r="N3" s="115" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="119"/>
-      <c r="P3" s="119"/>
-      <c r="Q3" s="119"/>
-      <c r="R3" s="119" t="s">
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="S3" s="119"/>
-      <c r="T3" s="119"/>
-      <c r="U3" s="119"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
       <c r="V3" s="120" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B4" s="118"/>
-      <c r="C4" s="119" t="s">
+      <c r="B4" s="119"/>
+      <c r="C4" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="119"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119" t="s">
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="119" t="s">
+      <c r="J4" s="115" t="s">
         <v>8</v>
       </c>
       <c r="K4" s="120"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="119" t="s">
+      <c r="M4" s="119"/>
+      <c r="N4" s="115" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="119"/>
-      <c r="P4" s="119"/>
-      <c r="Q4" s="119"/>
-      <c r="R4" s="119" t="s">
+      <c r="O4" s="115"/>
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115"/>
+      <c r="R4" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="S4" s="119"/>
-      <c r="T4" s="119" t="s">
+      <c r="S4" s="115"/>
+      <c r="T4" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="U4" s="119" t="s">
+      <c r="U4" s="115" t="s">
         <v>8</v>
       </c>
       <c r="V4" s="120"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
-      <c r="B5" s="118"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="80" t="s">
         <v>9</v>
       </c>
@@ -16872,10 +16867,10 @@
       <c r="H5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
       <c r="K5" s="120"/>
-      <c r="M5" s="118"/>
+      <c r="M5" s="119"/>
       <c r="N5" s="80" t="s">
         <v>9</v>
       </c>
@@ -16894,8 +16889,8 @@
       <c r="S5" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="T5" s="119"/>
-      <c r="U5" s="119"/>
+      <c r="T5" s="115"/>
+      <c r="U5" s="115"/>
       <c r="V5" s="120"/>
     </row>
     <row r="6" spans="2:22" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -17127,17 +17122,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="M3:M5"/>
-    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="R3:U3"/>
     <mergeCell ref="V3:V5"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="R4:S4"/>
     <mergeCell ref="T4:T5"/>
     <mergeCell ref="U4:U5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="M3:M5"/>
+    <mergeCell ref="N3:Q3"/>
     <mergeCell ref="M2:V2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="C3:F3"/>
